--- a/main/version.xlsx
+++ b/main/version.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>creation</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>now fields of inherited fields folders points to the inheriter</t>
   </si>
 </sst>
 </file>
@@ -372,11 +378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -386,7 +392,7 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -397,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -405,12 +411,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
       <c r="B3" s="3">
         <v>43170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43217</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
